--- a/Design/Excel/AICanvasConfig.xlsx
+++ b/Design/Excel/AICanvasConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="22200" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1063,7 +1063,7 @@
     <col min="1" max="1" width="20.2666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="33" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.6333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.725" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="24.2666666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.45" style="2" customWidth="1"/>
     <col min="7" max="7" width="6.725" style="2" customWidth="1"/>

--- a/Design/Excel/AICanvasConfig.xlsx
+++ b/Design/Excel/AICanvasConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22200" windowHeight="9345"/>
+    <workbookView windowWidth="23670" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,10 @@
     <t>资源名</t>
   </si>
   <si>
-    <t>默认角色碰撞</t>
+    <t>默认近战角色攻击</t>
   </si>
   <si>
-    <t>1807521249761427457</t>
+    <t>1882230831485810000</t>
   </si>
   <si>
     <t>Assets/Res/Configs/OtherConfigs/Enemy.bytes</t>
@@ -64,8 +64,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -693,14 +693,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
